--- a/public/template/template-data-pemilih.xlsx
+++ b/public/template/template-data-pemilih.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shabilahth\STTB\Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\evaluasi\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E154EC-877A-4B31-8170-30A6812B09F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFEEDA1A-2AD7-4685-A862-86334502E6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{B891A597-56B7-4826-8E41-D06A83BF81CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{26225ACD-D10E-491C-A208-78C2DA3038D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>kecamatan</t>
   </si>
   <si>
-    <t>kelurahan</t>
-  </si>
-  <si>
     <t>dpt_laki_laki</t>
   </si>
   <si>
@@ -60,24 +46,12 @@
   </si>
   <si>
     <t>suara_total</t>
-  </si>
-  <si>
-    <t>partisipasi</t>
-  </si>
-  <si>
-    <t>Andir</t>
-  </si>
-  <si>
-    <t>Ciroyom</t>
-  </si>
-  <si>
-    <t>74.47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,20 +61,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,73 +94,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{F137CF29-52B8-4A26-A46F-561F743C5654}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -194,20 +168,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{068112CC-200F-47C6-9DE9-B72F0C6B5ACA}" name="Table1" displayName="Table1" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0">
-  <autoFilter ref="A1:I2" xr:uid="{068112CC-200F-47C6-9DE9-B72F0C6B5ACA}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8A08A1C3-6F01-4870-B1FB-2CDC59384024}" name="kecamatan" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{473163D4-8FB8-4791-A580-A915FEDFCBCE}" name="kelurahan" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{77D6F2AC-4E0F-4375-BB3F-35530FE332F9}" name="dpt_laki_laki" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{E8392527-F32C-41C4-BECF-5D1F54AF782C}" name="dpt_perempuan" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{7D3A4C4A-6C25-492E-8476-FBB858C8B2E9}" name="dpt_total" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{773D6F3F-970A-45D1-B9C9-B881785956B2}" name="suara_sah" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{CF95DE1D-992E-4B02-88BB-FE192AF25965}" name="suara_tidak_sah" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{7EAC9D51-9755-4DE5-ACB5-D940D671449F}" name="suara_total" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{9BDAC962-094E-4524-881A-3DA59414861E}" name="partisipasi" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C4B0F25-DD7D-46E1-BC9C-9EC505015DDA}" name="Table2" displayName="Table2" ref="A1:G40" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G40" xr:uid="{8C4B0F25-DD7D-46E1-BC9C-9EC505015DDA}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D267B38D-2BBD-4180-B15E-35785440EA92}" name="kecamatan"/>
+    <tableColumn id="2" xr3:uid="{0CCBC07A-1C52-478E-99EA-E15D28918406}" name="dpt_laki_laki"/>
+    <tableColumn id="3" xr3:uid="{BB4AC92B-EC65-4F31-96C6-454FB6399BD3}" name="dpt_perempuan"/>
+    <tableColumn id="4" xr3:uid="{1B6E3625-FBD8-4AE0-B89C-79BC3EBC7143}" name="dpt_total"/>
+    <tableColumn id="5" xr3:uid="{8F2E3CA3-0B37-45CA-8639-F3B6E9225816}" name="suara_sah"/>
+    <tableColumn id="6" xr3:uid="{D138E2C1-511B-4A48-A47B-B66EAC637B9B}" name="suara_tidak_sah"/>
+    <tableColumn id="7" xr3:uid="{8A62B812-24D8-4952-96E2-E95DC851B3FC}" name="suara_total"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -507,27 +479,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50F696C-7FF2-44B8-AC69-F1A16E03764C}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A948CA-C44D-46A7-8C4E-1604C0643AAE}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,47 +518,13 @@
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1500</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1600</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3100</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2800</v>
-      </c>
-      <c r="G2" s="1">
-        <v>200</v>
-      </c>
-      <c r="H2" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>